--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MICHIGAN_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MICHIGAN_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D988"/>
+  <dimension ref="A1:D982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -496,7 +496,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C10">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C28">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C47">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C48">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C51">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C57">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C83">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C90">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C116">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C131">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C150">
@@ -2473,12 +2473,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C160">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C165">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C170">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C174">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C176">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C182">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C185">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C193">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C200">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C204">
@@ -3076,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C205">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C214">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C215">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C221">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C224">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C233">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C235">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C237">
@@ -3510,7 +3510,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C238">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C240">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C245">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C250">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C253">
@@ -3723,7 +3723,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C254">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C258">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C261">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C265">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C271">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C273">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C282">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C286">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C302">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C305">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C314">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C317">
@@ -4599,7 +4599,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C321">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C325">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C328">
@@ -4749,13 +4749,13 @@
         <v>51</v>
       </c>
       <c r="D332">
-        <v>0.009368111682586333</v>
+        <v>0.009368111682586331</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C336">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C339">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C343">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C346">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C348">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C353">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C357">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C360">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C362">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C371">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C374">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C375">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C380">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C384">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C389">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C391">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C392">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C397">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C400">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C405">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C410">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C411">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C412">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C416">
@@ -6689,7 +6689,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C481">
@@ -6943,7 +6943,7 @@
         <v>496</v>
       </c>
       <c r="D500">
-        <v>0.09110947832476121</v>
+        <v>0.0911094783247612</v>
       </c>
     </row>
     <row r="501">
@@ -7071,7 +7071,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C510">
@@ -7110,7 +7110,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C513">
@@ -7175,7 +7175,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C518">
@@ -7188,7 +7188,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C519">
@@ -7253,7 +7253,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C524">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C526">
@@ -7310,7 +7310,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C528">
@@ -7510,7 +7510,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C543">
@@ -7536,7 +7536,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C545">
@@ -7575,7 +7575,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C548">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C555">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C557">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C562">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C564">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C568">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C573">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C576">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C585">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C647">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C657">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C658">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C659">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C667">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C674">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C676">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C687">
@@ -9418,7 +9418,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C689">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C692">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C703">
@@ -9691,7 +9691,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C710">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C713">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C724">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C734">
@@ -10021,7 +10021,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C735">
@@ -10060,7 +10060,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C738">
@@ -10073,7 +10073,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C739">
@@ -10086,7 +10086,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C740">
@@ -10112,7 +10112,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C742">
@@ -10278,7 +10278,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C754">
@@ -10304,7 +10304,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C756">
@@ -10408,7 +10408,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C764">
@@ -10512,7 +10512,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C772">
@@ -10525,7 +10525,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C773">
@@ -10603,7 +10603,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C779">
@@ -10655,7 +10655,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C783">
@@ -10668,7 +10668,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C784">
@@ -10681,7 +10681,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C785">
@@ -10694,7 +10694,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C786">
@@ -11608,7 +11608,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C854">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C857">
@@ -11712,7 +11712,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C862">
@@ -11725,7 +11725,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C863">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C873">
@@ -11972,7 +11972,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C882">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C883">
@@ -12024,7 +12024,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C886">
@@ -12102,7 +12102,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C892">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C895">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C897">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C908">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C910">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C916">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C935">
@@ -12752,7 +12752,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C942">
@@ -12892,7 +12892,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C952">
@@ -12905,7 +12905,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C953">
@@ -13074,7 +13074,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C966">
@@ -13087,7 +13087,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C967">
@@ -13165,7 +13165,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C973">
@@ -13191,7 +13191,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C975">
@@ -13290,41 +13290,6 @@
       </c>
       <c r="D982">
         <v>1</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
